--- a/sesion6/internet(parte2).xlsx
+++ b/sesion6/internet(parte2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo282978_uniovi_es/Documents/CESPL/Sesion6/CESPL-main (4)/CESPL-main/sesion6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_615567A158AF38383D96193F91F66D33FD4E834D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301C7B1F-1DF7-4D85-9887-7246A5431AAD}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_615567A158AF38383D96193F91F66D33FD4E834D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82C8D6E-3F8E-49EC-B1B0-E30DAD70FDC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,6 +851,7 @@
         <c:axId val="131206671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1784,6 +1785,7 @@
         <c:axId val="2117756895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2657,6 +2659,7 @@
         <c:axId val="637987615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2774,6 +2777,7 @@
         <c:axId val="637984287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3530,6 +3534,7 @@
         <c:axId val="637987615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4403,6 +4408,7 @@
         <c:axId val="637987615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4520,6 +4526,7 @@
         <c:axId val="637984287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4771,7 +4778,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20968044619422574"/>
+          <c:x val="0.13745822397200352"/>
           <c:y val="2.7777777777777776E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -5175,6 +5182,7 @@
         <c:axId val="652427103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5540,6 +5548,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12472222222222222"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5940,6 +5956,7 @@
         <c:axId val="652436255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12458,6 +12475,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="JSIMresults" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -12727,8 +12748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
